--- a/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
+++ b/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t xml:space="preserve">Tidsregistrering af (sune)</t>
   </si>
@@ -86,6 +86,24 @@
     <t xml:space="preserve">Skrivning af Usevease Diagram</t>
   </si>
   <si>
+    <t xml:space="preserve">Udarbejdning af Iteration diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udarbedning af milepæle til iterations fasen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udarbejdning af Tidsregisterings guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 min</t>
+  </si>
+  <si>
     <t xml:space="preserve">Roller!</t>
   </si>
   <si>
@@ -120,9 +138,6 @@
   </si>
   <si>
     <t xml:space="preserve">integrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Manager</t>
   </si>
   <si>
     <t xml:space="preserve">Change Control Manager</t>
@@ -177,13 +192,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="HH:MM;@"/>
-    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -205,13 +219,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -250,24 +257,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFFA7D00"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -333,7 +328,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -357,13 +352,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -372,110 +361,108 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="1" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="1" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="1" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Accent5" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Accent2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Calculation" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFF2F2F2"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -490,12 +477,12 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF7F7F7F"/>
-      <rgbColor rgb="FF5B9BD5"/>
+      <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFF2F2F2"/>
       <rgbColor rgb="FFE7E6E6"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFED7D31"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -546,9 +533,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>245160</xdr:colOff>
+      <xdr:colOff>244800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -558,7 +545,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12440160" y="2580840"/>
-          <a:ext cx="184320" cy="264240"/>
+          <a:ext cx="183960" cy="263880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -588,7 +575,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -806,39 +793,87 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="20"/>
-      <c r="F9" s="21"/>
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="20" t="n">
+        <v>43886</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.579861111111111</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="G9" s="18" t="n">
         <f aca="false">E9-D9</f>
-        <v>0</v>
+        <v>0.204861111111111</v>
       </c>
       <c r="H9" s="19" t="n">
         <f aca="false">SUM(G$3:G9)</f>
-        <v>0.371527777777778</v>
+        <v>0.576388888888889</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="20"/>
-      <c r="F10" s="21"/>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="20" t="n">
+        <v>43886</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="G10" s="18" t="n">
         <f aca="false">E10-D10</f>
-        <v>0</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="H10" s="19" t="n">
         <f aca="false">SUM(G$3:G10)</f>
-        <v>0.371527777777778</v>
+        <v>0.597222222222222</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="20"/>
-      <c r="F11" s="21"/>
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="20" t="n">
+        <v>43886</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.607638888888889</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0.645138888888889</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="18" t="n">
         <f aca="false">E11-D11</f>
-        <v>0</v>
+        <v>0.0375000000000001</v>
       </c>
       <c r="H11" s="19" t="n">
         <f aca="false">SUM(G$3:G11)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,7 +885,7 @@
       </c>
       <c r="H12" s="19" t="n">
         <f aca="false">SUM(G$3:G12)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,7 +897,7 @@
       </c>
       <c r="H13" s="19" t="n">
         <f aca="false">SUM(G$3:G13)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -874,7 +909,7 @@
       </c>
       <c r="H14" s="19" t="n">
         <f aca="false">SUM(G$3:G14)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,7 +921,7 @@
       </c>
       <c r="H15" s="19" t="n">
         <f aca="false">SUM(G$3:G15)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,7 +933,7 @@
       </c>
       <c r="H16" s="19" t="n">
         <f aca="false">SUM(G$3:G16)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -910,7 +945,7 @@
       </c>
       <c r="H17" s="19" t="n">
         <f aca="false">SUM(G$3:G17)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,7 +957,7 @@
       </c>
       <c r="H18" s="19" t="n">
         <f aca="false">SUM(G$3:G18)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,7 +969,7 @@
       </c>
       <c r="H19" s="19" t="n">
         <f aca="false">SUM(G$3:G19)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,7 +981,7 @@
       </c>
       <c r="H20" s="19" t="n">
         <f aca="false">SUM(G$3:G20)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -958,7 +993,7 @@
       </c>
       <c r="H21" s="19" t="n">
         <f aca="false">SUM(G$3:G21)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,7 +1005,7 @@
       </c>
       <c r="H22" s="19" t="n">
         <f aca="false">SUM(G$3:G22)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,7 +1017,7 @@
       </c>
       <c r="H23" s="19" t="n">
         <f aca="false">SUM(G$3:G23)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -994,7 +1029,7 @@
       </c>
       <c r="H24" s="19" t="n">
         <f aca="false">SUM(G$3:G24)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,7 +1040,7 @@
       </c>
       <c r="H25" s="19" t="n">
         <f aca="false">SUM(G$3:G25)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,7 +1051,7 @@
       </c>
       <c r="H26" s="19" t="n">
         <f aca="false">SUM(G$3:G26)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1027,7 +1062,7 @@
       </c>
       <c r="H27" s="19" t="n">
         <f aca="false">SUM(G$3:G27)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1038,7 +1073,7 @@
       </c>
       <c r="H28" s="19" t="n">
         <f aca="false">SUM(G$3:G28)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,7 +1084,7 @@
       </c>
       <c r="H29" s="19" t="n">
         <f aca="false">SUM(G$3:G29)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1060,7 +1095,7 @@
       </c>
       <c r="H30" s="19" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,7 +1106,7 @@
       </c>
       <c r="H31" s="19" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,7 +1117,7 @@
       </c>
       <c r="H32" s="19" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>0.371527777777778</v>
+        <v>0.634722222222222</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1169,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1143,10 +1178,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1154,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,7 +1197,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,7 +1229,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,7 +1237,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,7 +1245,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,7 +1269,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,7 +1277,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,7 +1285,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,7 +1293,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1266,7 +1301,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1274,7 +1309,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1282,7 +1317,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,7 +1325,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,7 +1333,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,7 +1341,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,7 +1349,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1322,7 +1357,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,7 +1365,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1338,7 +1373,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,7 +1381,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1362,7 +1397,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,7 +1413,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
+++ b/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t xml:space="preserve">Tidsregistrering af (sune)</t>
   </si>
@@ -102,6 +102,21 @@
   </si>
   <si>
     <t xml:space="preserve">55 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forstat udarbejdning af Tidsregistrings guide (dnf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udarbejning Af UC04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85 min</t>
   </si>
   <si>
     <t xml:space="preserve">Roller!</t>
@@ -533,9 +548,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>244800</xdr:colOff>
+      <xdr:colOff>244440</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -545,7 +560,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12440160" y="2580840"/>
-          <a:ext cx="183960" cy="263880"/>
+          <a:ext cx="183600" cy="263520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -575,7 +590,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -877,51 +892,115 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="20"/>
-      <c r="F12" s="21"/>
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="20" t="n">
+        <v>43887</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0.629861111111111</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="G12" s="18" t="n">
         <f aca="false">E12-D12</f>
-        <v>0</v>
+        <v>0.254861111111111</v>
       </c>
       <c r="H12" s="19" t="n">
         <f aca="false">SUM(G$3:G12)</f>
-        <v>0.634722222222222</v>
+        <v>0.889583333333333</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="20"/>
-      <c r="F13" s="21"/>
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="20" t="n">
+        <v>43887</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0.493055555555556</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G13" s="18" t="n">
         <f aca="false">E13-D13</f>
-        <v>0</v>
+        <v>0.0347222222222223</v>
       </c>
       <c r="H13" s="19" t="n">
         <f aca="false">SUM(G$3:G13)</f>
-        <v>0.634722222222222</v>
+        <v>0.924305555555556</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="20"/>
-      <c r="F14" s="21"/>
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20" t="n">
+        <v>43887</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="G14" s="18" t="n">
         <f aca="false">E14-D14</f>
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="H14" s="19" t="n">
         <f aca="false">SUM(G$3:G14)</f>
-        <v>0.634722222222222</v>
+        <v>0.955555555555556</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="20"/>
-      <c r="F15" s="21"/>
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="20" t="n">
+        <v>43887</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0.633333333333333</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="G15" s="18" t="n">
         <f aca="false">E15-D15</f>
-        <v>0</v>
+        <v>0.0708333333333333</v>
       </c>
       <c r="H15" s="19" t="n">
         <f aca="false">SUM(G$3:G15)</f>
-        <v>0.634722222222222</v>
+        <v>1.02638888888889</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,7 +1012,7 @@
       </c>
       <c r="H16" s="19" t="n">
         <f aca="false">SUM(G$3:G16)</f>
-        <v>0.634722222222222</v>
+        <v>1.02638888888889</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,7 +1024,7 @@
       </c>
       <c r="H17" s="19" t="n">
         <f aca="false">SUM(G$3:G17)</f>
-        <v>0.634722222222222</v>
+        <v>1.02638888888889</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,7 +1036,7 @@
       </c>
       <c r="H18" s="19" t="n">
         <f aca="false">SUM(G$3:G18)</f>
-        <v>0.634722222222222</v>
+        <v>1.02638888888889</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -969,7 +1048,7 @@
       </c>
       <c r="H19" s="19" t="n">
         <f aca="false">SUM(G$3:G19)</f>
-        <v>0.634722222222222</v>
+        <v>1.02638888888889</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,7 +1060,7 @@
       </c>
       <c r="H20" s="19" t="n">
         <f aca="false">SUM(G$3:G20)</f>
-        <v>0.634722222222222</v>
+        <v>1.02638888888889</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -993,7 +1072,7 @@
       </c>
       <c r="H21" s="19" t="n">
         <f aca="false">SUM(G$3:G21)</f>
-        <v>0.634722222222222</v>
+        <v>1.02638888888889</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,7 +1084,7 @@
       </c>
       <c r="H22" s="19" t="n">
         <f aca="false">SUM(G$3:G22)</f>
-        <v>0.634722222222222</v>
+        <v>1.02638888888889</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,7 +1096,7 @@
       </c>
       <c r="H23" s="19" t="n">
         <f aca="false">SUM(G$3:G23)</f>
-        <v>0.634722222222222</v>
+        <v>1.02638888888889</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,7 +1108,7 @@
       </c>
       <c r="H24" s="19" t="n">
         <f aca="false">SUM(G$3:G24)</f>
-        <v>0.634722222222222</v>
+        <v>1.02638888888889</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,7 +1119,7 @@
       </c>
       <c r="H25" s="19" t="n">
         <f aca="false">SUM(G$3:G25)</f>
-        <v>0.634722222222222</v>
+        <v>1.02638888888889</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1051,7 +1130,7 @@
       </c>
       <c r="H26" s="19" t="n">
         <f aca="false">SUM(G$3:G26)</f>
-        <v>0.634722222222222</v>
+        <v>1.02638888888889</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1062,7 +1141,7 @@
       </c>
       <c r="H27" s="19" t="n">
         <f aca="false">SUM(G$3:G27)</f>
-        <v>0.634722222222222</v>
+        <v>1.02638888888889</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,7 +1152,7 @@
       </c>
       <c r="H28" s="19" t="n">
         <f aca="false">SUM(G$3:G28)</f>
-        <v>0.634722222222222</v>
+        <v>1.02638888888889</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1084,7 +1163,7 @@
       </c>
       <c r="H29" s="19" t="n">
         <f aca="false">SUM(G$3:G29)</f>
-        <v>0.634722222222222</v>
+        <v>1.02638888888889</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,7 +1174,7 @@
       </c>
       <c r="H30" s="19" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>0.634722222222222</v>
+        <v>1.02638888888889</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,7 +1185,7 @@
       </c>
       <c r="H31" s="19" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>0.634722222222222</v>
+        <v>1.02638888888889</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1117,7 +1196,7 @@
       </c>
       <c r="H32" s="19" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>0.634722222222222</v>
+        <v>1.02638888888889</v>
       </c>
     </row>
   </sheetData>
@@ -1169,7 +1248,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1178,10 +1257,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,7 +1284,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,7 +1300,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,7 +1308,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1237,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,7 +1324,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1253,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1261,7 +1340,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1277,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1285,7 +1364,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1293,7 +1372,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,7 +1380,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,7 +1388,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1317,7 +1396,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1325,7 +1404,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,7 +1412,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,7 +1420,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1349,7 +1428,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1357,7 +1436,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,7 +1444,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1373,7 +1452,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,7 +1460,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,7 +1476,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,7 +1492,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
+++ b/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t xml:space="preserve">Tidsregistrering af (sune)</t>
   </si>
@@ -117,6 +117,36 @@
   </si>
   <si>
     <t xml:space="preserve">85 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Færdigjorte Tidsregisterings guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review af AD06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review af Mockup06b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review af DD03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review AF DOM07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review af AD07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review af UC07</t>
   </si>
   <si>
     <t xml:space="preserve">Roller!</t>
@@ -544,13 +574,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>60840</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>244440</xdr:colOff>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -559,8 +589,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12440160" y="2580840"/>
-          <a:ext cx="183600" cy="263520"/>
+          <a:off x="12440160" y="2581200"/>
+          <a:ext cx="183240" cy="262800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -590,10 +620,10 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="53.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="31.44"/>
@@ -968,11 +998,11 @@
       </c>
       <c r="G14" s="18" t="n">
         <f aca="false">E14-D14</f>
-        <v>0.03125</v>
+        <v>0.0312499999999997</v>
       </c>
       <c r="H14" s="19" t="n">
         <f aca="false">SUM(G$3:G14)</f>
-        <v>0.955555555555556</v>
+        <v>0.955555555555555</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,90 +1034,202 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="20"/>
-      <c r="F16" s="21"/>
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="20" t="n">
+        <v>43888</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="G16" s="18" t="n">
         <f aca="false">E16-D16</f>
-        <v>0</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="H16" s="19" t="n">
         <f aca="false">SUM(G$3:G16)</f>
-        <v>1.02638888888889</v>
+        <v>1.04722222222222</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="20"/>
-      <c r="F17" s="21"/>
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="20" t="n">
+        <v>43888</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>0.409722222222222</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="G17" s="18" t="n">
         <f aca="false">E17-D17</f>
-        <v>0</v>
+        <v>0.0138888888888889</v>
       </c>
       <c r="H17" s="19" t="n">
         <f aca="false">SUM(G$3:G17)</f>
-        <v>1.02638888888889</v>
+        <v>1.06111111111111</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="20"/>
-      <c r="F18" s="21"/>
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="20" t="n">
+        <v>43888</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0.423611111111111</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="G18" s="18" t="n">
         <f aca="false">E18-D18</f>
-        <v>0</v>
+        <v>0.00694444444444442</v>
       </c>
       <c r="H18" s="19" t="n">
         <f aca="false">SUM(G$3:G18)</f>
-        <v>1.02638888888889</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="20"/>
-      <c r="F19" s="21"/>
+        <v>1.06805555555556</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="20" t="n">
+        <v>43888</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>0.430555555555556</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="G19" s="18" t="n">
         <f aca="false">E19-D19</f>
-        <v>0</v>
+        <v>0.00694444444444442</v>
       </c>
       <c r="H19" s="19" t="n">
         <f aca="false">SUM(G$3:G19)</f>
-        <v>1.02638888888889</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="20"/>
-      <c r="F20" s="21"/>
+        <v>1.075</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="20" t="n">
+        <v>43888</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0.440972222222222</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>0.451388888888889</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="G20" s="18" t="n">
         <f aca="false">E20-D20</f>
-        <v>0</v>
+        <v>0.0104166666666667</v>
       </c>
       <c r="H20" s="19" t="n">
         <f aca="false">SUM(G$3:G20)</f>
-        <v>1.02638888888889</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="20"/>
-      <c r="F21" s="21"/>
+        <v>1.08541666666667</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="20" t="n">
+        <v>43888</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0.451388888888889</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="G21" s="18" t="n">
         <f aca="false">E21-D21</f>
-        <v>0</v>
+        <v>0.00694444444444442</v>
       </c>
       <c r="H21" s="19" t="n">
         <f aca="false">SUM(G$3:G21)</f>
-        <v>1.02638888888889</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="20"/>
-      <c r="F22" s="21"/>
+        <v>1.09236111111111</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="20" t="n">
+        <v>43888</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>0.465277777777778</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="G22" s="18" t="n">
         <f aca="false">E22-D22</f>
-        <v>0</v>
+        <v>0.00694444444444448</v>
       </c>
       <c r="H22" s="19" t="n">
         <f aca="false">SUM(G$3:G22)</f>
-        <v>1.02638888888889</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.09930555555556</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="20"/>
       <c r="F23" s="21"/>
       <c r="G23" s="18" t="n">
@@ -1096,10 +1238,10 @@
       </c>
       <c r="H23" s="19" t="n">
         <f aca="false">SUM(G$3:G23)</f>
-        <v>1.02638888888889</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.09930555555556</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="20"/>
       <c r="F24" s="21"/>
       <c r="G24" s="18" t="n">
@@ -1108,10 +1250,10 @@
       </c>
       <c r="H24" s="19" t="n">
         <f aca="false">SUM(G$3:G24)</f>
-        <v>1.02638888888889</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.09930555555556</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="20"/>
       <c r="G25" s="18" t="n">
         <f aca="false">E25-D25</f>
@@ -1119,10 +1261,10 @@
       </c>
       <c r="H25" s="19" t="n">
         <f aca="false">SUM(G$3:G25)</f>
-        <v>1.02638888888889</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.09930555555556</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="20"/>
       <c r="G26" s="18" t="n">
         <f aca="false">E26-D26</f>
@@ -1130,10 +1272,10 @@
       </c>
       <c r="H26" s="19" t="n">
         <f aca="false">SUM(G$3:G26)</f>
-        <v>1.02638888888889</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.09930555555556</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="20"/>
       <c r="G27" s="18" t="n">
         <f aca="false">E27-D27</f>
@@ -1141,10 +1283,10 @@
       </c>
       <c r="H27" s="19" t="n">
         <f aca="false">SUM(G$3:G27)</f>
-        <v>1.02638888888889</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.09930555555556</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="20"/>
       <c r="G28" s="18" t="n">
         <f aca="false">E28-D28</f>
@@ -1152,10 +1294,10 @@
       </c>
       <c r="H28" s="19" t="n">
         <f aca="false">SUM(G$3:G28)</f>
-        <v>1.02638888888889</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.09930555555556</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="20"/>
       <c r="G29" s="18" t="n">
         <f aca="false">E29-D29</f>
@@ -1163,10 +1305,10 @@
       </c>
       <c r="H29" s="19" t="n">
         <f aca="false">SUM(G$3:G29)</f>
-        <v>1.02638888888889</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.09930555555556</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="20"/>
       <c r="G30" s="18" t="n">
         <f aca="false">E30-D30</f>
@@ -1174,10 +1316,10 @@
       </c>
       <c r="H30" s="19" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>1.02638888888889</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.09930555555556</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="20"/>
       <c r="G31" s="18" t="n">
         <f aca="false">E31-D31</f>
@@ -1185,10 +1327,10 @@
       </c>
       <c r="H31" s="19" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>1.02638888888889</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.09930555555556</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="20"/>
       <c r="G32" s="18" t="n">
         <f aca="false">E32-D32</f>
@@ -1196,7 +1338,7 @@
       </c>
       <c r="H32" s="19" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>1.02638888888889</v>
+        <v>1.09930555555556</v>
       </c>
     </row>
   </sheetData>
@@ -1248,7 +1390,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1257,10 +1399,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1268,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1276,7 +1418,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,7 +1442,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1308,7 +1450,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1316,7 +1458,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1324,7 +1466,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,7 +1482,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,7 +1498,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,7 +1506,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,7 +1514,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,7 +1522,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,7 +1530,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,7 +1538,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1404,7 +1546,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1412,7 +1554,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,7 +1562,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1428,7 +1570,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,7 +1578,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1444,7 +1586,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1452,7 +1594,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,7 +1602,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1476,7 +1618,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,7 +1634,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
+++ b/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
   <si>
     <t xml:space="preserve">Tidsregistrering af (sune)</t>
   </si>
@@ -147,6 +147,21 @@
   </si>
   <si>
     <t xml:space="preserve">Review af UC07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fik Review af UC04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krydstjek(DNF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review af SSD05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review af ADT07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lav ADT06</t>
   </si>
   <si>
     <t xml:space="preserve">Roller!</t>
@@ -578,9 +593,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>244080</xdr:colOff>
+      <xdr:colOff>243720</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -590,7 +605,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12440160" y="2581200"/>
-          <a:ext cx="183240" cy="262800"/>
+          <a:ext cx="182880" cy="262440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -620,7 +635,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1230,60 +1245,143 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="20"/>
-      <c r="F23" s="21"/>
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="20" t="n">
+        <v>43889</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="G23" s="18" t="n">
         <f aca="false">E23-D23</f>
-        <v>0</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="H23" s="19" t="n">
         <f aca="false">SUM(G$3:G23)</f>
-        <v>1.09930555555556</v>
+        <v>1.12013888888889</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="20" t="n">
+        <v>43889</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="G24" s="18" t="n">
         <f aca="false">E24-D24</f>
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="H24" s="19" t="n">
         <f aca="false">SUM(G$3:G24)</f>
-        <v>1.09930555555556</v>
+        <v>1.18263888888889</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="20"/>
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="20" t="n">
+        <v>43889</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>0.465277777777778</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G25" s="18" t="n">
         <f aca="false">E25-D25</f>
-        <v>0</v>
+        <v>0.0138888888888889</v>
       </c>
       <c r="H25" s="19" t="n">
         <f aca="false">SUM(G$3:G25)</f>
-        <v>1.09930555555556</v>
+        <v>1.19652777777778</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="20"/>
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="20" t="n">
+        <v>43889</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>0.534722222222222</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="G26" s="18" t="n">
         <f aca="false">E26-D26</f>
-        <v>0</v>
+        <v>0.0138888888888888</v>
       </c>
       <c r="H26" s="19" t="n">
         <f aca="false">SUM(G$3:G26)</f>
-        <v>1.09930555555556</v>
+        <v>1.21041666666667</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="20"/>
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="20" t="n">
+        <v>43889</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="G27" s="18" t="n">
         <f aca="false">E27-D27</f>
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H27" s="19" t="n">
         <f aca="false">SUM(G$3:G27)</f>
-        <v>1.09930555555556</v>
+        <v>1.25208333333333</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1294,7 +1392,7 @@
       </c>
       <c r="H28" s="19" t="n">
         <f aca="false">SUM(G$3:G28)</f>
-        <v>1.09930555555556</v>
+        <v>1.25208333333333</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1305,7 +1403,7 @@
       </c>
       <c r="H29" s="19" t="n">
         <f aca="false">SUM(G$3:G29)</f>
-        <v>1.09930555555556</v>
+        <v>1.25208333333333</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1316,7 +1414,7 @@
       </c>
       <c r="H30" s="19" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>1.09930555555556</v>
+        <v>1.25208333333333</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1327,7 +1425,7 @@
       </c>
       <c r="H31" s="19" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>1.09930555555556</v>
+        <v>1.25208333333333</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1338,7 +1436,7 @@
       </c>
       <c r="H32" s="19" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>1.09930555555556</v>
+        <v>1.25208333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1390,7 +1488,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1399,10 +1497,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1418,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1442,7 +1540,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,7 +1548,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1458,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,7 +1564,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,7 +1572,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1482,7 +1580,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1498,7 +1596,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1506,7 +1604,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1514,7 +1612,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,7 +1620,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,7 +1628,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1538,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,7 +1644,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1554,7 +1652,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,7 +1660,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,7 +1668,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,7 +1676,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1586,7 +1684,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1594,7 +1692,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1602,7 +1700,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,7 +1716,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,7 +1732,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
+++ b/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
   <si>
     <t xml:space="preserve">Tidsregistrering af (sune)</t>
   </si>
@@ -164,6 +164,15 @@
     <t xml:space="preserve">Lav ADT06</t>
   </si>
   <si>
+    <t xml:space="preserve">Lav Kryds UC04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavet UTD0104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implenter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Roller!</t>
   </si>
   <si>
@@ -192,9 +201,6 @@
   </si>
   <si>
     <t xml:space="preserve">Capsule Designer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implenter</t>
   </si>
   <si>
     <t xml:space="preserve">integrator</t>
@@ -589,13 +595,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>60840</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>243720</xdr:colOff>
+      <xdr:colOff>243360</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -604,8 +610,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12440160" y="2581200"/>
-          <a:ext cx="182880" cy="262440"/>
+          <a:off x="12440160" y="2581560"/>
+          <a:ext cx="182520" cy="261720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -632,10 +638,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1385,25 +1391,53 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="20"/>
-      <c r="G28" s="18" t="n">
-        <f aca="false">E28-D28</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="19" t="n">
-        <f aca="false">SUM(G$3:G28)</f>
-        <v>1.25208333333333</v>
-      </c>
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="20" t="n">
+        <v>43892</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="20"/>
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="20" t="n">
+        <v>43893</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>0.656944444444444</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G29" s="18" t="n">
         <f aca="false">E29-D29</f>
-        <v>0</v>
+        <v>0.281944444444444</v>
       </c>
       <c r="H29" s="19" t="n">
         <f aca="false">SUM(G$3:G29)</f>
-        <v>1.25208333333333</v>
+        <v>1.53402777777778</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1414,7 +1448,7 @@
       </c>
       <c r="H30" s="19" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>1.25208333333333</v>
+        <v>1.53402777777778</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,7 +1459,7 @@
       </c>
       <c r="H31" s="19" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>1.25208333333333</v>
+        <v>1.53402777777778</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,7 +1470,18 @@
       </c>
       <c r="H32" s="19" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>1.25208333333333</v>
+        <v>1.53402777777778</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="20"/>
+      <c r="G33" s="18" t="n">
+        <f aca="false">E33-D33</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="19" t="n">
+        <f aca="false">SUM(G$3:G33)</f>
+        <v>1.53402777777778</v>
       </c>
     </row>
   </sheetData>
@@ -1444,15 +1489,15 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3:B32" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3:B33" type="list">
       <formula1>Roller</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C1:C32" type="date">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C1:C33" type="date">
       <formula1>43881</formula1>
       <formula2>43908</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D1:D32" type="time">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D1:D33" type="time">
       <formula1>0.333333333333333</formula1>
       <formula2>0.708333333333333</formula2>
     </dataValidation>
@@ -1488,7 +1533,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1497,10 +1542,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1516,7 +1561,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1524,7 +1569,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,7 +1585,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,7 +1593,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1556,7 +1601,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,7 +1609,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,7 +1617,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,7 +1625,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,7 +1641,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,7 +1649,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,7 +1657,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,7 +1665,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1628,7 +1673,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,7 +1681,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,7 +1689,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,7 +1697,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,7 +1705,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,7 +1713,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,7 +1721,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,7 +1729,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,7 +1737,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,7 +1745,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,7 +1761,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,7 +1777,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
+++ b/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
   <si>
     <t xml:space="preserve">Tidsregistrering af (sune)</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t xml:space="preserve">Lav ADT06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemnter OC0104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lav UT0105</t>
   </si>
   <si>
     <t xml:space="preserve">Roller!</t>
@@ -593,9 +599,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>243720</xdr:colOff>
+      <xdr:colOff>243360</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -605,7 +611,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12440160" y="2581200"/>
-          <a:ext cx="182880" cy="262440"/>
+          <a:ext cx="182520" cy="262080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -635,7 +641,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1385,25 +1391,59 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="20"/>
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="20" t="n">
+        <v>43894</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G28" s="18" t="n">
         <f aca="false">E28-D28</f>
-        <v>0</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="H28" s="19" t="n">
         <f aca="false">SUM(G$3:G28)</f>
-        <v>1.25208333333333</v>
+        <v>1.54375</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="20"/>
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="20" t="n">
+        <v>43894</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G29" s="18" t="n">
         <f aca="false">E29-D29</f>
-        <v>0</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="H29" s="19" t="n">
         <f aca="false">SUM(G$3:G29)</f>
-        <v>1.25208333333333</v>
+        <v>1.83541666666667</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1414,7 +1454,7 @@
       </c>
       <c r="H30" s="19" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>1.25208333333333</v>
+        <v>1.83541666666667</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,7 +1465,7 @@
       </c>
       <c r="H31" s="19" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>1.25208333333333</v>
+        <v>1.83541666666667</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,7 +1476,7 @@
       </c>
       <c r="H32" s="19" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>1.25208333333333</v>
+        <v>1.83541666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1488,7 +1528,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1497,10 +1537,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1516,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1524,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,7 +1588,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1556,7 +1596,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,7 +1604,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,7 +1612,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,7 +1620,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,7 +1636,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,7 +1644,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,7 +1652,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,7 +1660,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1628,7 +1668,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,7 +1676,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,7 +1684,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,7 +1692,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,7 +1700,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,7 +1708,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,7 +1716,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,7 +1724,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,7 +1732,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,7 +1740,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,7 +1756,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,7 +1772,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
+++ b/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
   <si>
     <t xml:space="preserve">Tidsregistrering af (sune)</t>
   </si>
@@ -170,6 +170,18 @@
     <t xml:space="preserve">Lav UT0105</t>
   </si>
   <si>
+    <t xml:space="preserve">Udred merge conflict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lav-ENV10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemnter 0802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implenter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Roller!</t>
   </si>
   <si>
@@ -198,9 +210,6 @@
   </si>
   <si>
     <t xml:space="preserve">Capsule Designer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implenter</t>
   </si>
   <si>
     <t xml:space="preserve">integrator</t>
@@ -599,9 +608,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>243360</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -611,7 +620,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12440160" y="2581200"/>
-          <a:ext cx="182520" cy="262080"/>
+          <a:ext cx="182160" cy="261720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -641,7 +650,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1447,36 +1456,87 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="20"/>
+      <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="20" t="n">
+        <v>43894</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>0.475694444444444</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="G30" s="18" t="n">
         <f aca="false">E30-D30</f>
-        <v>0</v>
+        <v>0.100694444444444</v>
       </c>
       <c r="H30" s="19" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>1.83541666666667</v>
+        <v>1.93611111111111</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="20"/>
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="20" t="n">
+        <v>43894</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>0.475694444444444</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0.493055555555556</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G31" s="18" t="n">
         <f aca="false">E31-D31</f>
-        <v>0</v>
+        <v>0.0173611111111112</v>
       </c>
       <c r="H31" s="19" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>1.83541666666667</v>
+        <v>1.95347222222222</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="20"/>
+      <c r="A32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="20" t="n">
+        <v>43894</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G32" s="18" t="n">
         <f aca="false">E32-D32</f>
-        <v>0</v>
+        <v>0.145833333333333</v>
       </c>
       <c r="H32" s="19" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>1.83541666666667</v>
+        <v>2.09930555555556</v>
       </c>
     </row>
   </sheetData>
@@ -1528,7 +1588,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1537,10 +1597,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1556,7 +1616,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,7 +1624,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,7 +1640,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,7 +1648,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,7 +1656,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,7 +1664,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,7 +1672,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,7 +1680,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,7 +1696,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,7 +1704,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,7 +1712,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,7 +1720,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,7 +1728,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,7 +1736,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,7 +1744,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,7 +1752,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,7 +1760,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1708,7 +1768,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,7 +1776,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,7 +1784,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,7 +1792,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,7 +1800,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1756,7 +1816,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,7 +1832,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
+++ b/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
   <si>
     <t xml:space="preserve">Tidsregistrering af (sune)</t>
   </si>
@@ -170,6 +170,15 @@
     <t xml:space="preserve">Lav UT0105</t>
   </si>
   <si>
+    <t xml:space="preserve">Test Desinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemnter 0802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implenter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Roller!</t>
   </si>
   <si>
@@ -200,9 +209,6 @@
     <t xml:space="preserve">Capsule Designer</t>
   </si>
   <si>
-    <t xml:space="preserve">Implenter</t>
-  </si>
-  <si>
     <t xml:space="preserve">integrator</t>
   </si>
   <si>
@@ -225,9 +231,6 @@
   </si>
   <si>
     <t xml:space="preserve">Test Analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Desinger</t>
   </si>
   <si>
     <t xml:space="preserve">Tester</t>
@@ -599,9 +602,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>243360</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -611,7 +614,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12440160" y="2581200"/>
-          <a:ext cx="182520" cy="262080"/>
+          <a:ext cx="182160" cy="261720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -638,10 +641,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1447,36 +1450,107 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="20"/>
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="20" t="n">
+        <v>43895</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>0.493055555555556</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="G30" s="18" t="n">
         <f aca="false">E30-D30</f>
-        <v>0</v>
+        <v>0.118055555555556</v>
       </c>
       <c r="H30" s="19" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>1.83541666666667</v>
+        <v>1.95347222222222</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="20"/>
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="20" t="n">
+        <v>43895</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G31" s="18" t="n">
         <f aca="false">E31-D31</f>
-        <v>0</v>
+        <v>0.0729166666666666</v>
       </c>
       <c r="H31" s="19" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>1.83541666666667</v>
+        <v>2.02638888888889</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="20"/>
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="20" t="n">
+        <v>43895</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G32" s="18" t="n">
         <f aca="false">E32-D32</f>
-        <v>0</v>
+        <v>0.0729166666666666</v>
       </c>
       <c r="H32" s="19" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>1.83541666666667</v>
+        <v>2.09930555555556</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>43895</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1528,7 +1602,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1537,10 +1611,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1556,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,7 +1638,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,7 +1654,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,7 +1662,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,7 +1670,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,7 +1678,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,7 +1686,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,7 +1694,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,7 +1710,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,7 +1718,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,7 +1726,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,7 +1734,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,7 +1742,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,7 +1750,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,7 +1758,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,7 +1766,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,7 +1774,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1708,7 +1782,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,7 +1790,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,7 +1798,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,7 +1806,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,7 +1814,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1756,7 +1830,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,7 +1846,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
+++ b/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
   <si>
     <t xml:space="preserve">Tidsregistrering af (sune)</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t xml:space="preserve">Implenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lav SD0503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Architecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lav OC05053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lav DCD 0503</t>
   </si>
   <si>
     <t xml:space="preserve">Roller!</t>
@@ -602,9 +614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
+      <xdr:colOff>242640</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -614,7 +626,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12440160" y="2581200"/>
-          <a:ext cx="182160" cy="261720"/>
+          <a:ext cx="181800" cy="261360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -641,10 +653,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1551,6 +1563,66 @@
       </c>
       <c r="F33" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>43900</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>43900</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>0.697916666666667</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>43901</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1602,7 +1674,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1611,10 +1683,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1622,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,7 +1726,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,7 +1734,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,7 +1742,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,7 +1750,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1710,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1718,7 +1790,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,7 +1798,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,7 +1806,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1742,7 +1814,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,7 +1822,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,7 +1830,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,7 +1846,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,7 +1854,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,7 +1862,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1798,7 +1870,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1806,7 +1878,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1814,7 +1886,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,7 +1902,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,7 +1918,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
+++ b/08 Project Management/Tidsregistrering/PM18Tidsregistrering-sune.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
   <si>
     <t xml:space="preserve">Tidsregistrering af (sune)</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t xml:space="preserve">lav DCD 0503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implenter uc05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 timer</t>
   </si>
   <si>
     <t xml:space="preserve">Roller!</t>
@@ -532,13 +538,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -614,9 +620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>242640</xdr:colOff>
+      <xdr:colOff>242280</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -626,7 +632,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12440160" y="2581200"/>
-          <a:ext cx="181800" cy="261360"/>
+          <a:ext cx="181440" cy="261000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -653,13 +659,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
+      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="53.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="31.44"/>
@@ -668,7 +674,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="37.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="37.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,6 +1628,46 @@
       </c>
       <c r="F36" s="4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>43902</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>43903</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1665,16 +1710,14 @@
       <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1683,10 +1726,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1710,7 +1753,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,7 +1769,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,7 +1777,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1742,7 +1785,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,7 +1793,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,7 +1809,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,7 +1825,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,7 +1833,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1798,7 +1841,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1806,7 +1849,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1814,7 +1857,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,7 +1865,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,7 +1873,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,7 +1889,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,7 +1897,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,7 +1905,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,7 +1913,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,7 +1921,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1886,7 +1929,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1902,7 +1945,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1918,7 +1961,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
